--- a/data/data-p/labJournaal/A4, 7-12-2022 - Spreadsheet3.xlsx
+++ b/data/data-p/labJournaal/A4, 7-12-2022 - Spreadsheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boris\Bestanden\Uni\data\data-p\labJournaal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C678D0A1-6199-4E92-82B8-120192C59B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDA61E-FC7B-44D1-B76D-81965EDA4FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
-    <t>Ingangsfrequentie Hz</t>
-  </si>
-  <si>
-    <t>Ingangsspanning V</t>
-  </si>
-  <si>
-    <t>Uitgangsspanning V</t>
-  </si>
-  <si>
-    <t>Faseverschil ms</t>
-  </si>
-  <si>
     <t>32.0</t>
   </si>
   <si>
@@ -119,10 +107,22 @@
     <t>1.040</t>
   </si>
   <si>
-    <t xml:space="preserve">Amplituderespons </t>
-  </si>
-  <si>
-    <t>Faserespons (eenheid?)</t>
+    <t>Ingangsfrequentie (Hz)</t>
+  </si>
+  <si>
+    <t>Ingangsspanning (V)</t>
+  </si>
+  <si>
+    <t>Uitgangsspanning (V)</t>
+  </si>
+  <si>
+    <t>Faseverschil (ms)</t>
+  </si>
+  <si>
+    <t>Amplituderespons (Db)</t>
+  </si>
+  <si>
+    <t>Faserespons (Rad)</t>
   </si>
 </sst>
 </file>
@@ -484,23 +484,23 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
@@ -514,16 +514,16 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <f>E2/C2</f>
@@ -535,16 +535,16 @@
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L12" si="0">E3/C3</f>
@@ -556,16 +556,16 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -577,16 +577,16 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -598,16 +598,16 @@
         <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -619,16 +619,16 @@
         <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -640,16 +640,16 @@
         <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -661,16 +661,16 @@
         <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -682,16 +682,16 @@
         <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -703,16 +703,16 @@
         <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -724,16 +724,16 @@
         <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -747,6 +747,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D89154882F559C4DB7312950CF14A67B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48b1382bd96e2e7ebcc1c0eb9aa148a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16f16f30a8928a957eabea1b4c256533">
     <xsd:element name="properties">
@@ -860,22 +875,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A66C8E-3AA2-4A7B-A63A-876AF6F1D958}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB02660-2B0C-4669-A97F-7988A6F27378}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7175CA86-028F-4211-B7CC-87447AD5BEC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -889,27 +912,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB02660-2B0C-4669-A97F-7988A6F27378}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A66C8E-3AA2-4A7B-A63A-876AF6F1D958}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>